--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>ARVL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1017,26 +1017,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>ARVL</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -690,8 +690,8 @@
       <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
+      <c r="F7" s="2">
+        <v>43465</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -805,14 +805,14 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -860,25 +860,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>10900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6200</v>
+        <v>114400</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>60500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>36400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -954,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-60500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-36400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -994,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1045,25 +1045,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5100</v>
+        <v>-117900</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-64200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-36400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-20800</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>-8100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5300</v>
+        <v>-97100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-35200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5300</v>
+        <v>-97100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-35200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1318,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5300</v>
+        <v>-97100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-35200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5300</v>
+        <v>-97100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-35200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1433,8 +1433,8 @@
       <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
+      <c r="F38" s="2">
+        <v>43465</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>78300</v>
       </c>
       <c r="E41" s="3">
-        <v>1600</v>
+        <v>112800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1507,26 +1507,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>258900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1535,25 +1535,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>9900</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1562,25 +1562,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>6700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>22100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>179200</v>
       </c>
       <c r="E46" s="3">
-        <v>260500</v>
+        <v>135000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>259900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>12600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,25 +1670,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>131600</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>40800</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1697,25 +1697,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>200500</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>98400</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1778,25 +1778,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260300</v>
+        <v>525200</v>
       </c>
       <c r="E54" s="3">
-        <v>260500</v>
+        <v>283900</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>10700</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>10700</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,25 +1912,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>29800</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>13800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5300</v>
+        <v>45400</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>28000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>102600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9100</v>
+        <v>3200</v>
       </c>
       <c r="E62" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14300</v>
+        <v>151300</v>
       </c>
       <c r="E66" s="3">
-        <v>9200</v>
+        <v>51300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5300</v>
+        <v>-242000</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-195900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>246000</v>
+        <v>373900</v>
       </c>
       <c r="E76" s="3">
-        <v>251300</v>
+        <v>232600</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2448,8 +2448,8 @@
       <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
+      <c r="F80" s="2">
+        <v>43465</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5300</v>
+        <v>-97100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-35200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,25 +2510,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1300</v>
+        <v>-90300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-41000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-22800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,25 +2712,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-11500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-3700</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>-124500</v>
       </c>
       <c r="E94" s="3">
-        <v>-258800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-56400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-30300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>179500</v>
       </c>
       <c r="E100" s="3">
-        <v>260300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>208500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>47900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1200</v>
+        <v>-34500</v>
       </c>
       <c r="E102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>111600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-5200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E12" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="F12" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F14" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114400</v>
+        <v>110600</v>
       </c>
       <c r="E17" s="3">
-        <v>60500</v>
+        <v>58500</v>
       </c>
       <c r="F17" s="3">
-        <v>36400</v>
+        <v>35200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -954,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-60500</v>
+        <v>-58500</v>
       </c>
       <c r="F18" s="3">
-        <v>-36400</v>
+        <v>-35200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="E21" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F21" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-117900</v>
+        <v>-114100</v>
       </c>
       <c r="E23" s="3">
-        <v>-64200</v>
+        <v>-62100</v>
       </c>
       <c r="F23" s="3">
-        <v>-36400</v>
+        <v>-35200</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20800</v>
+        <v>-20100</v>
       </c>
       <c r="E24" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="F24" s="3">
         <v>-1100</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-97100</v>
+        <v>-94000</v>
       </c>
       <c r="E26" s="3">
-        <v>-56100</v>
+        <v>-54300</v>
       </c>
       <c r="F26" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-97100</v>
+        <v>-94000</v>
       </c>
       <c r="E27" s="3">
-        <v>-56100</v>
+        <v>-54300</v>
       </c>
       <c r="F27" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-97100</v>
+        <v>-94000</v>
       </c>
       <c r="E33" s="3">
-        <v>-56100</v>
+        <v>-54300</v>
       </c>
       <c r="F33" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-97100</v>
+        <v>-94000</v>
       </c>
       <c r="E35" s="3">
-        <v>-56100</v>
+        <v>-54300</v>
       </c>
       <c r="F35" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78300</v>
+        <v>75700</v>
       </c>
       <c r="E41" s="3">
-        <v>112800</v>
+        <v>109100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65000</v>
+        <v>62900</v>
       </c>
       <c r="E43" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="E44" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="E45" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>179200</v>
+        <v>173300</v>
       </c>
       <c r="E46" s="3">
-        <v>135000</v>
+        <v>130500</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="E47" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>131600</v>
+        <v>127300</v>
       </c>
       <c r="E48" s="3">
-        <v>40800</v>
+        <v>39500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200500</v>
+        <v>193900</v>
       </c>
       <c r="E49" s="3">
-        <v>98400</v>
+        <v>95100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>525200</v>
+        <v>508000</v>
       </c>
       <c r="E54" s="3">
-        <v>283900</v>
+        <v>274600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="E57" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29800</v>
+        <v>28800</v>
       </c>
       <c r="E59" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="E60" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>102600</v>
+        <v>99300</v>
       </c>
       <c r="E61" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>151300</v>
+        <v>146300</v>
       </c>
       <c r="E66" s="3">
-        <v>51300</v>
+        <v>49600</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-242000</v>
+        <v>-234100</v>
       </c>
       <c r="E72" s="3">
-        <v>-195900</v>
+        <v>-189500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>373900</v>
+        <v>361700</v>
       </c>
       <c r="E76" s="3">
-        <v>232600</v>
+        <v>225000</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-97100</v>
+        <v>-94000</v>
       </c>
       <c r="E81" s="3">
-        <v>-56100</v>
+        <v>-54300</v>
       </c>
       <c r="F81" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="E83" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-90300</v>
+        <v>-87300</v>
       </c>
       <c r="E89" s="3">
-        <v>-41000</v>
+        <v>-39700</v>
       </c>
       <c r="F89" s="3">
-        <v>-22800</v>
+        <v>-22000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-124500</v>
+        <v>-120500</v>
       </c>
       <c r="E94" s="3">
-        <v>-56400</v>
+        <v>-54600</v>
       </c>
       <c r="F94" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>179500</v>
+        <v>173600</v>
       </c>
       <c r="E100" s="3">
-        <v>208500</v>
+        <v>201700</v>
       </c>
       <c r="F100" s="3">
-        <v>47900</v>
+        <v>46400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34500</v>
+        <v>-33400</v>
       </c>
       <c r="E102" s="3">
-        <v>111600</v>
+        <v>107900</v>
       </c>
       <c r="F102" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="E12" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F12" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -863,10 +863,10 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F14" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>110600</v>
+        <v>106900</v>
       </c>
       <c r="E17" s="3">
-        <v>58500</v>
+        <v>56600</v>
       </c>
       <c r="F17" s="3">
-        <v>35200</v>
+        <v>34000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -954,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-58500</v>
+        <v>-56600</v>
       </c>
       <c r="F18" s="3">
-        <v>-35200</v>
+        <v>-34000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="E21" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F21" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-114100</v>
+        <v>-110200</v>
       </c>
       <c r="E23" s="3">
-        <v>-62100</v>
+        <v>-60000</v>
       </c>
       <c r="F23" s="3">
-        <v>-35200</v>
+        <v>-34000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20100</v>
+        <v>-19400</v>
       </c>
       <c r="E24" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="F24" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-94000</v>
+        <v>-90800</v>
       </c>
       <c r="E26" s="3">
-        <v>-54300</v>
+        <v>-52500</v>
       </c>
       <c r="F26" s="3">
-        <v>-34100</v>
+        <v>-32900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-94000</v>
+        <v>-90800</v>
       </c>
       <c r="E27" s="3">
-        <v>-54300</v>
+        <v>-52500</v>
       </c>
       <c r="F27" s="3">
-        <v>-34100</v>
+        <v>-32900</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-94000</v>
+        <v>-90800</v>
       </c>
       <c r="E33" s="3">
-        <v>-54300</v>
+        <v>-52500</v>
       </c>
       <c r="F33" s="3">
-        <v>-34100</v>
+        <v>-32900</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-94000</v>
+        <v>-90800</v>
       </c>
       <c r="E35" s="3">
-        <v>-54300</v>
+        <v>-52500</v>
       </c>
       <c r="F35" s="3">
-        <v>-34100</v>
+        <v>-32900</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>75700</v>
+        <v>73200</v>
       </c>
       <c r="E41" s="3">
-        <v>109100</v>
+        <v>105400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62900</v>
+        <v>60700</v>
       </c>
       <c r="E43" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="E44" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>173300</v>
+        <v>167500</v>
       </c>
       <c r="E46" s="3">
-        <v>130500</v>
+        <v>126100</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="E47" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127300</v>
+        <v>123000</v>
       </c>
       <c r="E48" s="3">
-        <v>39500</v>
+        <v>38100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>193900</v>
+        <v>187300</v>
       </c>
       <c r="E49" s="3">
-        <v>95100</v>
+        <v>91900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>508000</v>
+        <v>490800</v>
       </c>
       <c r="E54" s="3">
-        <v>274600</v>
+        <v>265300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="E57" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28800</v>
+        <v>27800</v>
       </c>
       <c r="E59" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43900</v>
+        <v>42500</v>
       </c>
       <c r="E60" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>99300</v>
+        <v>95900</v>
       </c>
       <c r="E61" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>146300</v>
+        <v>141400</v>
       </c>
       <c r="E66" s="3">
-        <v>49600</v>
+        <v>47900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-234100</v>
+        <v>-226200</v>
       </c>
       <c r="E72" s="3">
-        <v>-189500</v>
+        <v>-183100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>361700</v>
+        <v>349400</v>
       </c>
       <c r="E76" s="3">
-        <v>225000</v>
+        <v>217400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-94000</v>
+        <v>-90800</v>
       </c>
       <c r="E81" s="3">
-        <v>-54300</v>
+        <v>-52500</v>
       </c>
       <c r="F81" s="3">
-        <v>-34100</v>
+        <v>-32900</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="E83" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-87300</v>
+        <v>-84400</v>
       </c>
       <c r="E89" s="3">
-        <v>-39700</v>
+        <v>-38300</v>
       </c>
       <c r="F89" s="3">
-        <v>-22000</v>
+        <v>-21300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11100</v>
+        <v>-10700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120500</v>
+        <v>-116400</v>
       </c>
       <c r="E94" s="3">
-        <v>-54600</v>
+        <v>-52700</v>
       </c>
       <c r="F94" s="3">
-        <v>-29300</v>
+        <v>-28300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>173600</v>
+        <v>167700</v>
       </c>
       <c r="E100" s="3">
-        <v>201700</v>
+        <v>194900</v>
       </c>
       <c r="F100" s="3">
-        <v>46400</v>
+        <v>44800</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33400</v>
+        <v>-32300</v>
       </c>
       <c r="E102" s="3">
-        <v>107900</v>
+        <v>104300</v>
       </c>
       <c r="F102" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>ARVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,9 +705,12 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,9 +735,12 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,22 +812,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19600</v>
+        <v>50100</v>
       </c>
       <c r="E12" s="3">
-        <v>12200</v>
+        <v>18600</v>
       </c>
       <c r="F12" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>11600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1078400</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>5400</v>
-      </c>
       <c r="F14" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106900</v>
+        <v>1263800</v>
       </c>
       <c r="E17" s="3">
-        <v>56600</v>
+        <v>101700</v>
       </c>
       <c r="F17" s="3">
-        <v>34000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>53800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>32400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,9 +970,12 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -954,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-56600</v>
+        <v>-101700</v>
       </c>
       <c r="F18" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-53800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-32400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1017,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -994,14 +1027,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-700</v>
+        <v>1900</v>
       </c>
       <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10700</v>
+        <v>21600</v>
       </c>
       <c r="E21" s="3">
-        <v>5300</v>
+        <v>10100</v>
       </c>
       <c r="F21" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,23 +1074,26 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5300</v>
+        <v>11200</v>
       </c>
       <c r="E22" s="3">
-        <v>2800</v>
+        <v>5100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-110200</v>
+        <v>-1138800</v>
       </c>
       <c r="E23" s="3">
-        <v>-60000</v>
+        <v>-104800</v>
       </c>
       <c r="F23" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-57100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-32300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,24 +1134,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-19400</v>
+        <v>6600</v>
       </c>
       <c r="E24" s="3">
-        <v>-7600</v>
+        <v>-18500</v>
       </c>
       <c r="F24" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-90800</v>
+        <v>-1145400</v>
       </c>
       <c r="E26" s="3">
-        <v>-52500</v>
+        <v>-86400</v>
       </c>
       <c r="F26" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-49900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-31300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-90800</v>
+        <v>-1145400</v>
       </c>
       <c r="E27" s="3">
-        <v>-52500</v>
+        <v>-86400</v>
       </c>
       <c r="F27" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-49900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-31300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1374,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1318,14 +1387,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>-1900</v>
       </c>
       <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-90800</v>
+        <v>-1145400</v>
       </c>
       <c r="E33" s="3">
-        <v>-52500</v>
+        <v>-86400</v>
       </c>
       <c r="F33" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-49900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-31300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-90800</v>
+        <v>-1145400</v>
       </c>
       <c r="E35" s="3">
-        <v>-52500</v>
+        <v>-86400</v>
       </c>
       <c r="F35" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-49900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-31300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>73200</v>
+        <v>826000</v>
       </c>
       <c r="E41" s="3">
-        <v>105400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>69600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60700</v>
+        <v>41500</v>
       </c>
       <c r="E43" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>57800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,20 +1647,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12900</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>12300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5900</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20700</v>
+        <v>44100</v>
       </c>
       <c r="E45" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>19700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>167500</v>
+        <v>932800</v>
       </c>
       <c r="E46" s="3">
-        <v>126100</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>159300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>120000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,20 +1737,23 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11800</v>
+        <v>37500</v>
       </c>
       <c r="E47" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>11200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>123000</v>
+        <v>249100</v>
       </c>
       <c r="E48" s="3">
-        <v>38100</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>117000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>36300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>187300</v>
+        <v>380300</v>
       </c>
       <c r="E49" s="3">
-        <v>91900</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>178200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>87400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,21 +1887,24 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>490800</v>
+        <v>1623200</v>
       </c>
       <c r="E54" s="3">
-        <v>265300</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>466900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>252400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10000</v>
+        <v>38600</v>
       </c>
       <c r="E57" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>9500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4600</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27800</v>
+        <v>24300</v>
       </c>
       <c r="E59" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>12300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42500</v>
+        <v>74800</v>
       </c>
       <c r="E60" s="3">
-        <v>26200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>40400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>24900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>95900</v>
+        <v>305400</v>
       </c>
       <c r="E61" s="3">
-        <v>21800</v>
+        <v>91200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>20700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3000</v>
+        <v>118900</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>141400</v>
+        <v>499100</v>
       </c>
       <c r="E66" s="3">
-        <v>47900</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>134500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-226200</v>
+        <v>-4331800</v>
       </c>
       <c r="E72" s="3">
-        <v>-183100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-215200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-174200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>349400</v>
+        <v>1124100</v>
       </c>
       <c r="E76" s="3">
-        <v>217400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>332500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>206800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-90800</v>
+        <v>-1145400</v>
       </c>
       <c r="E81" s="3">
-        <v>-52500</v>
+        <v>-86400</v>
       </c>
       <c r="F81" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-49900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-31300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10500</v>
+        <v>21300</v>
       </c>
       <c r="E83" s="3">
-        <v>5200</v>
+        <v>10000</v>
       </c>
       <c r="F83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-84400</v>
+        <v>-239200</v>
       </c>
       <c r="E89" s="3">
-        <v>-38300</v>
+        <v>-80300</v>
       </c>
       <c r="F89" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-36500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-20300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10700</v>
+        <v>-68000</v>
       </c>
       <c r="E91" s="3">
-        <v>-6600</v>
+        <v>-10200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-6300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-116400</v>
+        <v>-274300</v>
       </c>
       <c r="E94" s="3">
-        <v>-52700</v>
+        <v>-110700</v>
       </c>
       <c r="F94" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-50200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-26900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>167700</v>
+        <v>1262000</v>
       </c>
       <c r="E100" s="3">
-        <v>194900</v>
+        <v>159600</v>
       </c>
       <c r="F100" s="3">
-        <v>44800</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>185400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>42600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,23 +3206,26 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-32300</v>
+        <v>756400</v>
       </c>
       <c r="E102" s="3">
-        <v>104300</v>
+        <v>-30700</v>
       </c>
       <c r="F102" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>99200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-4600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>50100</v>
+        <v>48100</v>
       </c>
       <c r="E12" s="3">
-        <v>18600</v>
+        <v>17900</v>
       </c>
       <c r="F12" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -879,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1078400</v>
+        <v>1036300</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G14" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1263800</v>
+        <v>1214500</v>
       </c>
       <c r="E17" s="3">
-        <v>101700</v>
+        <v>97700</v>
       </c>
       <c r="F17" s="3">
-        <v>53800</v>
+        <v>51700</v>
       </c>
       <c r="G17" s="3">
-        <v>32400</v>
+        <v>31100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -983,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-101700</v>
+        <v>-97700</v>
       </c>
       <c r="F18" s="3">
-        <v>-53800</v>
+        <v>-51700</v>
       </c>
       <c r="G18" s="3">
-        <v>-32400</v>
+        <v>-31100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="3">
         <v>-600</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21600</v>
+        <v>20500</v>
       </c>
       <c r="E21" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="F21" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G21" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="E22" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1138800</v>
+        <v>-1094400</v>
       </c>
       <c r="E23" s="3">
-        <v>-104800</v>
+        <v>-100800</v>
       </c>
       <c r="F23" s="3">
-        <v>-57100</v>
+        <v>-54900</v>
       </c>
       <c r="G23" s="3">
-        <v>-32300</v>
+        <v>-31100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
-        <v>-18500</v>
+        <v>-17800</v>
       </c>
       <c r="F24" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="G24" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1145400</v>
+        <v>-1100700</v>
       </c>
       <c r="E26" s="3">
-        <v>-86400</v>
+        <v>-83000</v>
       </c>
       <c r="F26" s="3">
-        <v>-49900</v>
+        <v>-48000</v>
       </c>
       <c r="G26" s="3">
-        <v>-31300</v>
+        <v>-30100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1145400</v>
+        <v>-1100700</v>
       </c>
       <c r="E27" s="3">
-        <v>-86400</v>
+        <v>-83000</v>
       </c>
       <c r="F27" s="3">
-        <v>-49900</v>
+        <v>-48000</v>
       </c>
       <c r="G27" s="3">
-        <v>-31300</v>
+        <v>-30100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F32" s="3">
         <v>600</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1145400</v>
+        <v>-1100700</v>
       </c>
       <c r="E33" s="3">
-        <v>-86400</v>
+        <v>-83000</v>
       </c>
       <c r="F33" s="3">
-        <v>-49900</v>
+        <v>-48000</v>
       </c>
       <c r="G33" s="3">
-        <v>-31300</v>
+        <v>-30100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1145400</v>
+        <v>-1100700</v>
       </c>
       <c r="E35" s="3">
-        <v>-86400</v>
+        <v>-83000</v>
       </c>
       <c r="F35" s="3">
-        <v>-49900</v>
+        <v>-48000</v>
       </c>
       <c r="G35" s="3">
-        <v>-31300</v>
+        <v>-30100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>826000</v>
+        <v>793800</v>
       </c>
       <c r="E41" s="3">
-        <v>69600</v>
+        <v>66900</v>
       </c>
       <c r="F41" s="3">
-        <v>100300</v>
+        <v>96400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41500</v>
+        <v>39900</v>
       </c>
       <c r="E43" s="3">
-        <v>57800</v>
+        <v>55500</v>
       </c>
       <c r="F43" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21100</v>
+        <v>20300</v>
       </c>
       <c r="E44" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="F44" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44100</v>
+        <v>42400</v>
       </c>
       <c r="E45" s="3">
-        <v>19700</v>
+        <v>18900</v>
       </c>
       <c r="F45" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>932800</v>
+        <v>896400</v>
       </c>
       <c r="E46" s="3">
-        <v>159300</v>
+        <v>153100</v>
       </c>
       <c r="F46" s="3">
-        <v>120000</v>
+        <v>115300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37500</v>
+        <v>36100</v>
       </c>
       <c r="E47" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="F47" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>249100</v>
+        <v>239400</v>
       </c>
       <c r="E48" s="3">
-        <v>117000</v>
+        <v>112400</v>
       </c>
       <c r="F48" s="3">
-        <v>36300</v>
+        <v>34900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>380300</v>
+        <v>365500</v>
       </c>
       <c r="E49" s="3">
-        <v>178200</v>
+        <v>171300</v>
       </c>
       <c r="F49" s="3">
-        <v>87400</v>
+        <v>84000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,10 +1897,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
+        <v>22500</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1623200</v>
+        <v>1559900</v>
       </c>
       <c r="E54" s="3">
-        <v>466900</v>
+        <v>448700</v>
       </c>
       <c r="F54" s="3">
-        <v>252400</v>
+        <v>242500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38600</v>
+        <v>37100</v>
       </c>
       <c r="E57" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="F57" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="E58" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F58" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24300</v>
+        <v>23300</v>
       </c>
       <c r="E59" s="3">
-        <v>26500</v>
+        <v>25500</v>
       </c>
       <c r="F59" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74800</v>
+        <v>71900</v>
       </c>
       <c r="E60" s="3">
-        <v>40400</v>
+        <v>38800</v>
       </c>
       <c r="F60" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>305400</v>
+        <v>293400</v>
       </c>
       <c r="E61" s="3">
-        <v>91200</v>
+        <v>87700</v>
       </c>
       <c r="F61" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>118900</v>
+        <v>114300</v>
       </c>
       <c r="E62" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>499100</v>
+        <v>479600</v>
       </c>
       <c r="E66" s="3">
-        <v>134500</v>
+        <v>129200</v>
       </c>
       <c r="F66" s="3">
-        <v>45600</v>
+        <v>43800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4331800</v>
+        <v>-4162800</v>
       </c>
       <c r="E72" s="3">
-        <v>-215200</v>
+        <v>-206800</v>
       </c>
       <c r="F72" s="3">
-        <v>-174200</v>
+        <v>-167400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1124100</v>
+        <v>1080200</v>
       </c>
       <c r="E76" s="3">
-        <v>332500</v>
+        <v>319500</v>
       </c>
       <c r="F76" s="3">
-        <v>206800</v>
+        <v>198700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1145400</v>
+        <v>-1100700</v>
       </c>
       <c r="E81" s="3">
-        <v>-86400</v>
+        <v>-83000</v>
       </c>
       <c r="F81" s="3">
-        <v>-49900</v>
+        <v>-48000</v>
       </c>
       <c r="G81" s="3">
-        <v>-31300</v>
+        <v>-30100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21300</v>
+        <v>20500</v>
       </c>
       <c r="E83" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-239200</v>
+        <v>-229900</v>
       </c>
       <c r="E89" s="3">
-        <v>-80300</v>
+        <v>-77100</v>
       </c>
       <c r="F89" s="3">
-        <v>-36500</v>
+        <v>-35000</v>
       </c>
       <c r="G89" s="3">
-        <v>-20300</v>
+        <v>-19500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-68000</v>
+        <v>-65300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="F91" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-274300</v>
+        <v>-263600</v>
       </c>
       <c r="E94" s="3">
-        <v>-110700</v>
+        <v>-106400</v>
       </c>
       <c r="F94" s="3">
-        <v>-50200</v>
+        <v>-48200</v>
       </c>
       <c r="G94" s="3">
-        <v>-26900</v>
+        <v>-25800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1262000</v>
+        <v>1212700</v>
       </c>
       <c r="E100" s="3">
-        <v>159600</v>
+        <v>153400</v>
       </c>
       <c r="F100" s="3">
-        <v>185400</v>
+        <v>178200</v>
       </c>
       <c r="G100" s="3">
-        <v>42600</v>
+        <v>40900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>756400</v>
+        <v>726900</v>
       </c>
       <c r="E102" s="3">
-        <v>-30700</v>
+        <v>-29500</v>
       </c>
       <c r="F102" s="3">
-        <v>99200</v>
+        <v>95300</v>
       </c>
       <c r="G102" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>48100</v>
+        <v>49200</v>
       </c>
       <c r="E12" s="3">
-        <v>17900</v>
+        <v>18300</v>
       </c>
       <c r="F12" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="G12" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -879,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1036300</v>
+        <v>1060600</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G14" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1214500</v>
+        <v>1243000</v>
       </c>
       <c r="E17" s="3">
-        <v>97700</v>
+        <v>100000</v>
       </c>
       <c r="F17" s="3">
-        <v>51700</v>
+        <v>52900</v>
       </c>
       <c r="G17" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -983,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-97700</v>
+        <v>-100000</v>
       </c>
       <c r="F18" s="3">
-        <v>-51700</v>
+        <v>-52900</v>
       </c>
       <c r="G18" s="3">
-        <v>-31100</v>
+        <v>-31800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F20" s="3">
         <v>-600</v>
@@ -1054,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="E21" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F21" s="3">
         <v>4800</v>
@@ -1084,10 +1084,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="E22" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F22" s="3">
         <v>2600</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1094400</v>
+        <v>-1120000</v>
       </c>
       <c r="E23" s="3">
-        <v>-100800</v>
+        <v>-103100</v>
       </c>
       <c r="F23" s="3">
-        <v>-54900</v>
+        <v>-56200</v>
       </c>
       <c r="G23" s="3">
-        <v>-31100</v>
+        <v>-31800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E24" s="3">
-        <v>-17800</v>
+        <v>-18200</v>
       </c>
       <c r="F24" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="G24" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100700</v>
+        <v>-1126500</v>
       </c>
       <c r="E26" s="3">
-        <v>-83000</v>
+        <v>-84900</v>
       </c>
       <c r="F26" s="3">
-        <v>-48000</v>
+        <v>-49100</v>
       </c>
       <c r="G26" s="3">
-        <v>-30100</v>
+        <v>-30800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100700</v>
+        <v>-1126500</v>
       </c>
       <c r="E27" s="3">
-        <v>-83000</v>
+        <v>-84900</v>
       </c>
       <c r="F27" s="3">
-        <v>-48000</v>
+        <v>-49100</v>
       </c>
       <c r="G27" s="3">
-        <v>-30100</v>
+        <v>-30800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F32" s="3">
         <v>600</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100700</v>
+        <v>-1126500</v>
       </c>
       <c r="E33" s="3">
-        <v>-83000</v>
+        <v>-84900</v>
       </c>
       <c r="F33" s="3">
-        <v>-48000</v>
+        <v>-49100</v>
       </c>
       <c r="G33" s="3">
-        <v>-30100</v>
+        <v>-30800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100700</v>
+        <v>-1126500</v>
       </c>
       <c r="E35" s="3">
-        <v>-83000</v>
+        <v>-84900</v>
       </c>
       <c r="F35" s="3">
-        <v>-48000</v>
+        <v>-49100</v>
       </c>
       <c r="G35" s="3">
-        <v>-30100</v>
+        <v>-30800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>793800</v>
+        <v>812400</v>
       </c>
       <c r="E41" s="3">
-        <v>66900</v>
+        <v>68500</v>
       </c>
       <c r="F41" s="3">
-        <v>96400</v>
+        <v>98700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39900</v>
+        <v>40900</v>
       </c>
       <c r="E43" s="3">
-        <v>55500</v>
+        <v>56800</v>
       </c>
       <c r="F43" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="E44" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="F44" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="E45" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>896400</v>
+        <v>917400</v>
       </c>
       <c r="E46" s="3">
-        <v>153100</v>
+        <v>156700</v>
       </c>
       <c r="F46" s="3">
-        <v>115300</v>
+        <v>118000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36100</v>
+        <v>36900</v>
       </c>
       <c r="E47" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="F47" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>239400</v>
+        <v>245000</v>
       </c>
       <c r="E48" s="3">
-        <v>112400</v>
+        <v>115100</v>
       </c>
       <c r="F48" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>365500</v>
+        <v>374100</v>
       </c>
       <c r="E49" s="3">
-        <v>171300</v>
+        <v>175300</v>
       </c>
       <c r="F49" s="3">
-        <v>84000</v>
+        <v>86000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,10 +1897,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1559900</v>
+        <v>1596400</v>
       </c>
       <c r="E54" s="3">
-        <v>448700</v>
+        <v>459200</v>
       </c>
       <c r="F54" s="3">
-        <v>242500</v>
+        <v>248200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="E57" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="F57" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="E58" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="E59" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="F59" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71900</v>
+        <v>73600</v>
       </c>
       <c r="E60" s="3">
-        <v>38800</v>
+        <v>39700</v>
       </c>
       <c r="F60" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>293400</v>
+        <v>300300</v>
       </c>
       <c r="E61" s="3">
-        <v>87700</v>
+        <v>89700</v>
       </c>
       <c r="F61" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>114300</v>
+        <v>117000</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>479600</v>
+        <v>490900</v>
       </c>
       <c r="E66" s="3">
-        <v>129200</v>
+        <v>132300</v>
       </c>
       <c r="F66" s="3">
-        <v>43800</v>
+        <v>44800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4162800</v>
+        <v>-4260400</v>
       </c>
       <c r="E72" s="3">
-        <v>-206800</v>
+        <v>-211600</v>
       </c>
       <c r="F72" s="3">
-        <v>-167400</v>
+        <v>-171300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1080200</v>
+        <v>1105500</v>
       </c>
       <c r="E76" s="3">
-        <v>319500</v>
+        <v>327000</v>
       </c>
       <c r="F76" s="3">
-        <v>198700</v>
+        <v>203400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100700</v>
+        <v>-1126500</v>
       </c>
       <c r="E81" s="3">
-        <v>-83000</v>
+        <v>-84900</v>
       </c>
       <c r="F81" s="3">
-        <v>-48000</v>
+        <v>-49100</v>
       </c>
       <c r="G81" s="3">
-        <v>-30100</v>
+        <v>-30800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="E83" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="F83" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-229900</v>
+        <v>-235300</v>
       </c>
       <c r="E89" s="3">
-        <v>-77100</v>
+        <v>-78900</v>
       </c>
       <c r="F89" s="3">
-        <v>-35000</v>
+        <v>-35900</v>
       </c>
       <c r="G89" s="3">
-        <v>-19500</v>
+        <v>-19900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65300</v>
+        <v>-66900</v>
       </c>
       <c r="E91" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="G91" s="3">
         <v>-3200</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-263600</v>
+        <v>-269700</v>
       </c>
       <c r="E94" s="3">
-        <v>-106400</v>
+        <v>-108900</v>
       </c>
       <c r="F94" s="3">
-        <v>-48200</v>
+        <v>-49300</v>
       </c>
       <c r="G94" s="3">
-        <v>-25800</v>
+        <v>-26500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1212700</v>
+        <v>1241200</v>
       </c>
       <c r="E100" s="3">
-        <v>153400</v>
+        <v>157000</v>
       </c>
       <c r="F100" s="3">
-        <v>178200</v>
+        <v>182300</v>
       </c>
       <c r="G100" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>726900</v>
+        <v>743900</v>
       </c>
       <c r="E102" s="3">
-        <v>-29500</v>
+        <v>-30200</v>
       </c>
       <c r="F102" s="3">
-        <v>95300</v>
+        <v>97600</v>
       </c>
       <c r="G102" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>49200</v>
+        <v>51000</v>
       </c>
       <c r="E12" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="F12" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="G12" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -879,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1060600</v>
+        <v>1099300</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G14" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1243000</v>
+        <v>1288300</v>
       </c>
       <c r="E17" s="3">
-        <v>100000</v>
+        <v>103600</v>
       </c>
       <c r="F17" s="3">
-        <v>52900</v>
+        <v>54800</v>
       </c>
       <c r="G17" s="3">
-        <v>31800</v>
+        <v>33000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -983,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-100000</v>
+        <v>-103600</v>
       </c>
       <c r="F18" s="3">
-        <v>-52900</v>
+        <v>-54800</v>
       </c>
       <c r="G18" s="3">
-        <v>-31800</v>
+        <v>-33000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20600</v>
+        <v>21700</v>
       </c>
       <c r="E21" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="F21" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G21" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1120000</v>
+        <v>-1160900</v>
       </c>
       <c r="E23" s="3">
-        <v>-103100</v>
+        <v>-106900</v>
       </c>
       <c r="F23" s="3">
-        <v>-56200</v>
+        <v>-58200</v>
       </c>
       <c r="G23" s="3">
-        <v>-31800</v>
+        <v>-32900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E24" s="3">
-        <v>-18200</v>
+        <v>-18800</v>
       </c>
       <c r="F24" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="G24" s="3">
         <v>-1000</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1126500</v>
+        <v>-1167600</v>
       </c>
       <c r="E26" s="3">
-        <v>-84900</v>
+        <v>-88000</v>
       </c>
       <c r="F26" s="3">
-        <v>-49100</v>
+        <v>-50900</v>
       </c>
       <c r="G26" s="3">
-        <v>-30800</v>
+        <v>-31900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1126500</v>
+        <v>-1167600</v>
       </c>
       <c r="E27" s="3">
-        <v>-84900</v>
+        <v>-88000</v>
       </c>
       <c r="F27" s="3">
-        <v>-49100</v>
+        <v>-50900</v>
       </c>
       <c r="G27" s="3">
-        <v>-30800</v>
+        <v>-31900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1126500</v>
+        <v>-1167600</v>
       </c>
       <c r="E33" s="3">
-        <v>-84900</v>
+        <v>-88000</v>
       </c>
       <c r="F33" s="3">
-        <v>-49100</v>
+        <v>-50900</v>
       </c>
       <c r="G33" s="3">
-        <v>-30800</v>
+        <v>-31900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1126500</v>
+        <v>-1167600</v>
       </c>
       <c r="E35" s="3">
-        <v>-84900</v>
+        <v>-88000</v>
       </c>
       <c r="F35" s="3">
-        <v>-49100</v>
+        <v>-50900</v>
       </c>
       <c r="G35" s="3">
-        <v>-30800</v>
+        <v>-31900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>812400</v>
+        <v>842000</v>
       </c>
       <c r="E41" s="3">
-        <v>68500</v>
+        <v>71000</v>
       </c>
       <c r="F41" s="3">
-        <v>98700</v>
+        <v>102200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40900</v>
+        <v>42300</v>
       </c>
       <c r="E43" s="3">
-        <v>56800</v>
+        <v>58900</v>
       </c>
       <c r="F43" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="E44" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="F44" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43400</v>
+        <v>45000</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="F45" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>917400</v>
+        <v>950800</v>
       </c>
       <c r="E46" s="3">
-        <v>156700</v>
+        <v>162400</v>
       </c>
       <c r="F46" s="3">
-        <v>118000</v>
+        <v>122300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36900</v>
+        <v>38300</v>
       </c>
       <c r="E47" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F47" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>245000</v>
+        <v>253900</v>
       </c>
       <c r="E48" s="3">
-        <v>115100</v>
+        <v>119300</v>
       </c>
       <c r="F48" s="3">
-        <v>35700</v>
+        <v>37000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>374100</v>
+        <v>387700</v>
       </c>
       <c r="E49" s="3">
-        <v>175300</v>
+        <v>181700</v>
       </c>
       <c r="F49" s="3">
-        <v>86000</v>
+        <v>89100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1596400</v>
+        <v>1654600</v>
       </c>
       <c r="E54" s="3">
-        <v>459200</v>
+        <v>476000</v>
       </c>
       <c r="F54" s="3">
-        <v>248200</v>
+        <v>257300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37900</v>
+        <v>39300</v>
       </c>
       <c r="E57" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="F57" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F58" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="E59" s="3">
-        <v>26100</v>
+        <v>27000</v>
       </c>
       <c r="F59" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73600</v>
+        <v>76300</v>
       </c>
       <c r="E60" s="3">
-        <v>39700</v>
+        <v>41200</v>
       </c>
       <c r="F60" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300300</v>
+        <v>311300</v>
       </c>
       <c r="E61" s="3">
-        <v>89700</v>
+        <v>93000</v>
       </c>
       <c r="F61" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>117000</v>
+        <v>121200</v>
       </c>
       <c r="E62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>490900</v>
+        <v>508800</v>
       </c>
       <c r="E66" s="3">
-        <v>132300</v>
+        <v>137100</v>
       </c>
       <c r="F66" s="3">
-        <v>44800</v>
+        <v>46500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4260400</v>
+        <v>-4415700</v>
       </c>
       <c r="E72" s="3">
-        <v>-211600</v>
+        <v>-219400</v>
       </c>
       <c r="F72" s="3">
-        <v>-171300</v>
+        <v>-177600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1105500</v>
+        <v>1145800</v>
       </c>
       <c r="E76" s="3">
-        <v>327000</v>
+        <v>338900</v>
       </c>
       <c r="F76" s="3">
-        <v>203400</v>
+        <v>210800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1126500</v>
+        <v>-1167600</v>
       </c>
       <c r="E81" s="3">
-        <v>-84900</v>
+        <v>-88000</v>
       </c>
       <c r="F81" s="3">
-        <v>-49100</v>
+        <v>-50900</v>
       </c>
       <c r="G81" s="3">
-        <v>-30800</v>
+        <v>-31900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="E83" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
         <v>2200</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-235300</v>
+        <v>-243900</v>
       </c>
       <c r="E89" s="3">
-        <v>-78900</v>
+        <v>-81800</v>
       </c>
       <c r="F89" s="3">
-        <v>-35900</v>
+        <v>-37200</v>
       </c>
       <c r="G89" s="3">
-        <v>-19900</v>
+        <v>-20700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66900</v>
+        <v>-69300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10000</v>
+        <v>-10400</v>
       </c>
       <c r="F91" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-269700</v>
+        <v>-279600</v>
       </c>
       <c r="E94" s="3">
-        <v>-108900</v>
+        <v>-112900</v>
       </c>
       <c r="F94" s="3">
-        <v>-49300</v>
+        <v>-51100</v>
       </c>
       <c r="G94" s="3">
-        <v>-26500</v>
+        <v>-27400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1241200</v>
+        <v>1286400</v>
       </c>
       <c r="E100" s="3">
-        <v>157000</v>
+        <v>162700</v>
       </c>
       <c r="F100" s="3">
-        <v>182300</v>
+        <v>189000</v>
       </c>
       <c r="G100" s="3">
-        <v>41900</v>
+        <v>43400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>743900</v>
+        <v>771100</v>
       </c>
       <c r="E102" s="3">
-        <v>-30200</v>
+        <v>-31300</v>
       </c>
       <c r="F102" s="3">
-        <v>97600</v>
+        <v>101100</v>
       </c>
       <c r="G102" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ARVL_YR_FIN.xlsx
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>51000</v>
+        <v>51900</v>
       </c>
       <c r="E12" s="3">
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="F12" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G12" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -879,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1099300</v>
+        <v>1118900</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G14" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1288300</v>
+        <v>1311300</v>
       </c>
       <c r="E17" s="3">
-        <v>103600</v>
+        <v>105500</v>
       </c>
       <c r="F17" s="3">
-        <v>54800</v>
+        <v>55800</v>
       </c>
       <c r="G17" s="3">
-        <v>33000</v>
+        <v>33600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -983,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-103600</v>
+        <v>-105500</v>
       </c>
       <c r="F18" s="3">
-        <v>-54800</v>
+        <v>-55800</v>
       </c>
       <c r="G18" s="3">
-        <v>-33000</v>
+        <v>-33600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1027,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="E21" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="F21" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G21" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1160900</v>
+        <v>-1181600</v>
       </c>
       <c r="E23" s="3">
-        <v>-106900</v>
+        <v>-108800</v>
       </c>
       <c r="F23" s="3">
-        <v>-58200</v>
+        <v>-59300</v>
       </c>
       <c r="G23" s="3">
-        <v>-32900</v>
+        <v>-33500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="F24" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="G24" s="3">
         <v>-1000</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1167600</v>
+        <v>-1188400</v>
       </c>
       <c r="E26" s="3">
-        <v>-88000</v>
+        <v>-89600</v>
       </c>
       <c r="F26" s="3">
-        <v>-50900</v>
+        <v>-51800</v>
       </c>
       <c r="G26" s="3">
-        <v>-31900</v>
+        <v>-32500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1167600</v>
+        <v>-1188400</v>
       </c>
       <c r="E27" s="3">
-        <v>-88000</v>
+        <v>-89600</v>
       </c>
       <c r="F27" s="3">
-        <v>-50900</v>
+        <v>-51800</v>
       </c>
       <c r="G27" s="3">
-        <v>-31900</v>
+        <v>-32500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1387,10 +1387,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1167600</v>
+        <v>-1188400</v>
       </c>
       <c r="E33" s="3">
-        <v>-88000</v>
+        <v>-89600</v>
       </c>
       <c r="F33" s="3">
-        <v>-50900</v>
+        <v>-51800</v>
       </c>
       <c r="G33" s="3">
-        <v>-31900</v>
+        <v>-32500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1167600</v>
+        <v>-1188400</v>
       </c>
       <c r="E35" s="3">
-        <v>-88000</v>
+        <v>-89600</v>
       </c>
       <c r="F35" s="3">
-        <v>-50900</v>
+        <v>-51800</v>
       </c>
       <c r="G35" s="3">
-        <v>-31900</v>
+        <v>-32500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>842000</v>
+        <v>857100</v>
       </c>
       <c r="E41" s="3">
-        <v>71000</v>
+        <v>72200</v>
       </c>
       <c r="F41" s="3">
-        <v>102200</v>
+        <v>104100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="E43" s="3">
-        <v>58900</v>
+        <v>59900</v>
       </c>
       <c r="F43" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="E44" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="F44" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="E45" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="F45" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>950800</v>
+        <v>967800</v>
       </c>
       <c r="E46" s="3">
-        <v>162400</v>
+        <v>165300</v>
       </c>
       <c r="F46" s="3">
-        <v>122300</v>
+        <v>124500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38300</v>
+        <v>38900</v>
       </c>
       <c r="E47" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>253900</v>
+        <v>258500</v>
       </c>
       <c r="E48" s="3">
-        <v>119300</v>
+        <v>121400</v>
       </c>
       <c r="F48" s="3">
-        <v>37000</v>
+        <v>37600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>387700</v>
+        <v>394600</v>
       </c>
       <c r="E49" s="3">
-        <v>181700</v>
+        <v>184900</v>
       </c>
       <c r="F49" s="3">
-        <v>89100</v>
+        <v>90700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1654600</v>
+        <v>1684200</v>
       </c>
       <c r="E54" s="3">
-        <v>476000</v>
+        <v>484500</v>
       </c>
       <c r="F54" s="3">
-        <v>257300</v>
+        <v>261900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39300</v>
+        <v>40000</v>
       </c>
       <c r="E57" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F57" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="E58" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F58" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="E59" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="F59" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76300</v>
+        <v>77600</v>
       </c>
       <c r="E60" s="3">
-        <v>41200</v>
+        <v>41900</v>
       </c>
       <c r="F60" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>311300</v>
+        <v>316800</v>
       </c>
       <c r="E61" s="3">
-        <v>93000</v>
+        <v>94700</v>
       </c>
       <c r="F61" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>121200</v>
+        <v>123400</v>
       </c>
       <c r="E62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>508800</v>
+        <v>517900</v>
       </c>
       <c r="E66" s="3">
-        <v>137100</v>
+        <v>139500</v>
       </c>
       <c r="F66" s="3">
-        <v>46500</v>
+        <v>47300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4415700</v>
+        <v>-4494600</v>
       </c>
       <c r="E72" s="3">
-        <v>-219400</v>
+        <v>-223300</v>
       </c>
       <c r="F72" s="3">
-        <v>-177600</v>
+        <v>-180700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1145800</v>
+        <v>1166300</v>
       </c>
       <c r="E76" s="3">
-        <v>338900</v>
+        <v>344900</v>
       </c>
       <c r="F76" s="3">
-        <v>210800</v>
+        <v>214600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1167600</v>
+        <v>-1188400</v>
       </c>
       <c r="E81" s="3">
-        <v>-88000</v>
+        <v>-89600</v>
       </c>
       <c r="F81" s="3">
-        <v>-50900</v>
+        <v>-51800</v>
       </c>
       <c r="G81" s="3">
-        <v>-31900</v>
+        <v>-32500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="E83" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-243900</v>
+        <v>-248200</v>
       </c>
       <c r="E89" s="3">
-        <v>-81800</v>
+        <v>-83300</v>
       </c>
       <c r="F89" s="3">
-        <v>-37200</v>
+        <v>-37800</v>
       </c>
       <c r="G89" s="3">
-        <v>-20700</v>
+        <v>-21000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69300</v>
+        <v>-70600</v>
       </c>
       <c r="E91" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="F91" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="G91" s="3">
         <v>-3400</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-279600</v>
+        <v>-284600</v>
       </c>
       <c r="E94" s="3">
-        <v>-112900</v>
+        <v>-114900</v>
       </c>
       <c r="F94" s="3">
-        <v>-51100</v>
+        <v>-52100</v>
       </c>
       <c r="G94" s="3">
-        <v>-27400</v>
+        <v>-27900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1286400</v>
+        <v>1309400</v>
       </c>
       <c r="E100" s="3">
-        <v>162700</v>
+        <v>165600</v>
       </c>
       <c r="F100" s="3">
-        <v>189000</v>
+        <v>192400</v>
       </c>
       <c r="G100" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>771100</v>
+        <v>784800</v>
       </c>
       <c r="E102" s="3">
-        <v>-31300</v>
+        <v>-31800</v>
       </c>
       <c r="F102" s="3">
-        <v>101100</v>
+        <v>102900</v>
       </c>
       <c r="G102" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
